--- a/VO2_data/subject_1432.xlsx
+++ b/VO2_data/subject_1432.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uofc.sharepoint.com/sites/KNES606/Shared Documents/General/Subjects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\John Holash\Documents\Knes381\VO2_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0347AFF0-6C4E-4B4D-A1C0-C0866E4DE267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1CEFE3-9216-42DA-A139-9F613F4EC189}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1044" yWindow="1116" windowWidth="22080" windowHeight="23268" xr2:uid="{A0058809-0E63-488D-9D70-226AB5D9D38F}"/>
+    <workbookView xWindow="1392" yWindow="1464" windowWidth="22080" windowHeight="23268" xr2:uid="{A0058809-0E63-488D-9D70-226AB5D9D38F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,111 +36,90 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
-  <si>
-    <t xml:space="preserve">TIME </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VO2   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VO2/kg  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">METS </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VCO2  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VE     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RER  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RR  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vt    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEO2  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FECO2 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">HR  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VE/   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PetCO2 </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>Power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">STPD  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">STPD    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BTPS   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BTPS  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">      </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       </t>
-  </si>
-  <si>
-    <t xml:space="preserve">min  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L/min </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ml/kg/m </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L/min  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BPM </t>
-  </si>
-  <si>
-    <t xml:space="preserve">L     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">%     </t>
-  </si>
-  <si>
-    <t xml:space="preserve">bpm </t>
-  </si>
-  <si>
-    <t xml:space="preserve">BT/ST </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mmHg   </t>
   </si>
   <si>
     <t>Watts</t>
   </si>
   <si>
     <t>----------</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>VO2</t>
+  </si>
+  <si>
+    <t>VO2/kg</t>
+  </si>
+  <si>
+    <t>METS</t>
+  </si>
+  <si>
+    <t>VCO2</t>
+  </si>
+  <si>
+    <t>VE</t>
+  </si>
+  <si>
+    <t>RER</t>
+  </si>
+  <si>
+    <t>RR</t>
+  </si>
+  <si>
+    <t>Vt</t>
+  </si>
+  <si>
+    <t>FEO2</t>
+  </si>
+  <si>
+    <t>FECO2</t>
+  </si>
+  <si>
+    <t>HR</t>
+  </si>
+  <si>
+    <t>VE/</t>
+  </si>
+  <si>
+    <t>PetCO2</t>
+  </si>
+  <si>
+    <t>STPD</t>
+  </si>
+  <si>
+    <t>BTPS</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>L/min</t>
+  </si>
+  <si>
+    <t>ml/kg/m</t>
+  </si>
+  <si>
+    <t>BPM</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>bpm</t>
+  </si>
+  <si>
+    <t>BT/ST</t>
+  </si>
+  <si>
+    <t>mmHg</t>
   </si>
 </sst>
 </file>
@@ -502,154 +481,124 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>17</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s">
-        <v>19</v>
-      </c>
       <c r="I2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>4</v>
-      </c>
-      <c r="O2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
+      <c r="J3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="M3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" t="s">
         <v>27</v>
       </c>
-      <c r="I3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" t="s">
-        <v>32</v>
-      </c>
       <c r="P3" t="s">
-        <v>33</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
